--- a/igem2017/sdin/tools/preload/works/circuits/6_b.xlsx
+++ b/igem2017/sdin/tools/preload/works/circuits/6_b.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18431"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18528"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="5070" windowHeight="8040" tabRatio="822" firstSheet="26" activeTab="34" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="5070" windowHeight="8040" tabRatio="822" firstSheet="16" activeTab="28" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -8447,8 +8447,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:G88"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H13" sqref="A1:XFD1048576"/>
+    <sheetView topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="E37" sqref="E37:F48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -9157,6 +9157,12 @@
       <c r="D38" s="1" t="s">
         <v>63</v>
       </c>
+      <c r="E38" s="1">
+        <v>0</v>
+      </c>
+      <c r="F38" s="1">
+        <v>0</v>
+      </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A39" s="1">
@@ -9171,6 +9177,12 @@
       <c r="D39" s="1" t="s">
         <v>65</v>
       </c>
+      <c r="E39" s="1">
+        <v>0</v>
+      </c>
+      <c r="F39" s="1">
+        <v>0</v>
+      </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A40" s="1">
@@ -9185,6 +9197,12 @@
       <c r="D40" s="1" t="s">
         <v>67</v>
       </c>
+      <c r="E40" s="1">
+        <v>0</v>
+      </c>
+      <c r="F40" s="1">
+        <v>0</v>
+      </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A41" s="1">
@@ -9199,6 +9217,12 @@
       <c r="D41" s="1" t="s">
         <v>69</v>
       </c>
+      <c r="E41" s="1">
+        <v>0</v>
+      </c>
+      <c r="F41" s="1">
+        <v>0</v>
+      </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A42" s="1">
@@ -9213,6 +9237,12 @@
       <c r="D42" s="1" t="s">
         <v>71</v>
       </c>
+      <c r="E42" s="1">
+        <v>0</v>
+      </c>
+      <c r="F42" s="1">
+        <v>0</v>
+      </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A43" s="1">
@@ -9227,6 +9257,12 @@
       <c r="D43" s="1" t="s">
         <v>72</v>
       </c>
+      <c r="E43" s="1">
+        <v>0</v>
+      </c>
+      <c r="F43" s="1">
+        <v>0</v>
+      </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A44" s="1">
@@ -9241,6 +9277,12 @@
       <c r="D44" s="1" t="s">
         <v>73</v>
       </c>
+      <c r="E44" s="1">
+        <v>0</v>
+      </c>
+      <c r="F44" s="1">
+        <v>0</v>
+      </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A45" s="1">
@@ -9255,6 +9297,12 @@
       <c r="D45" s="1" t="s">
         <v>75</v>
       </c>
+      <c r="E45" s="1">
+        <v>0</v>
+      </c>
+      <c r="F45" s="1">
+        <v>0</v>
+      </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A46" s="1">
@@ -9269,6 +9317,12 @@
       <c r="D46" s="1" t="s">
         <v>16</v>
       </c>
+      <c r="E46" s="1">
+        <v>0</v>
+      </c>
+      <c r="F46" s="1">
+        <v>0</v>
+      </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A47" s="1">
@@ -9283,6 +9337,12 @@
       <c r="D47" s="1" t="s">
         <v>77</v>
       </c>
+      <c r="E47" s="1">
+        <v>0</v>
+      </c>
+      <c r="F47" s="1">
+        <v>0</v>
+      </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A48" s="1">
@@ -9296,6 +9356,12 @@
       </c>
       <c r="D48" s="1" t="s">
         <v>82</v>
+      </c>
+      <c r="E48" s="1">
+        <v>0</v>
+      </c>
+      <c r="F48" s="1">
+        <v>0</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.2">
@@ -9549,7 +9615,7 @@
   <dimension ref="A1:G36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J17" sqref="A1:XFD1048576"/>
+      <selection activeCell="E9" sqref="E9:F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -9697,6 +9763,12 @@
       </c>
       <c r="D10" s="1" t="s">
         <v>13</v>
+      </c>
+      <c r="E10" s="1">
+        <v>0</v>
+      </c>
+      <c r="F10" s="1">
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.2">
@@ -14939,8 +15011,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1C00-000000000000}">
   <dimension ref="A1:G51"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I16" sqref="I16"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="E22" sqref="E22:F23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -15348,6 +15420,12 @@
       </c>
       <c r="D23" s="1" t="s">
         <v>311</v>
+      </c>
+      <c r="E23" s="1">
+        <v>0</v>
+      </c>
+      <c r="F23" s="1">
+        <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.2">
@@ -18940,7 +19018,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-2200-000000000000}">
   <dimension ref="A1:G45"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView topLeftCell="A7" workbookViewId="0">
       <selection activeCell="E25" sqref="E25"/>
     </sheetView>
   </sheetViews>
@@ -22095,8 +22173,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:G65"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J7" sqref="A1:XFD1048576"/>
+    <sheetView topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="E32" sqref="E32:F34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -22692,7 +22770,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A33" s="4">
         <v>28</v>
       </c>
@@ -22705,8 +22783,14 @@
       <c r="D33" s="1" t="s">
         <v>228</v>
       </c>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E33" s="1">
+        <v>0</v>
+      </c>
+      <c r="F33" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A34" s="1">
         <v>29</v>
       </c>
@@ -22719,13 +22803,19 @@
       <c r="D34" s="1" t="s">
         <v>229</v>
       </c>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E34" s="1">
+        <v>0</v>
+      </c>
+      <c r="F34" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A37" s="3" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A38" s="1" t="s">
         <v>3</v>
       </c>
@@ -22733,7 +22823,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A39" s="1">
         <v>1</v>
       </c>
@@ -22741,7 +22831,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A40" s="1">
         <v>2</v>
       </c>
@@ -22749,7 +22839,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A41" s="1">
         <v>3</v>
       </c>
@@ -22757,7 +22847,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A42" s="1">
         <v>4</v>
       </c>
@@ -22765,7 +22855,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A43" s="1">
         <v>5</v>
       </c>
@@ -22773,20 +22863,20 @@
         <v>231</v>
       </c>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A44" s="3"/>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A46" s="3" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A47" s="6" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A48" s="1">
         <v>3</v>
       </c>
